--- a/data/independent_variables_corr.xlsx
+++ b/data/independent_variables_corr.xlsx
@@ -489,52 +489,52 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>-0.001850288885893298</v>
+        <v>0.02182616945355888</v>
       </c>
       <c r="D2">
-        <v>0.1489215867274769</v>
+        <v>0.1561973582161129</v>
       </c>
       <c r="E2">
-        <v>0.01230810475196872</v>
+        <v>0.03495921009184902</v>
       </c>
       <c r="F2">
-        <v>-0.1319339922662939</v>
+        <v>-0.1163750909869544</v>
       </c>
       <c r="G2">
-        <v>0.02627770392256088</v>
+        <v>0.02077255415418379</v>
       </c>
       <c r="H2">
-        <v>-0.02456673840456082</v>
+        <v>0.05817603804063805</v>
       </c>
       <c r="I2">
-        <v>0.004457630734771163</v>
+        <v>0.0408407768959013</v>
       </c>
       <c r="J2">
-        <v>0.03286644137759669</v>
+        <v>-0.06360947616749865</v>
       </c>
       <c r="K2">
-        <v>0.008016892832598585</v>
+        <v>-0.006476228721486406</v>
       </c>
       <c r="L2">
-        <v>-0.000140497167486764</v>
+        <v>-0.005444397892174383</v>
       </c>
       <c r="M2">
-        <v>0.05762120001360425</v>
+        <v>0.07924311916357935</v>
       </c>
       <c r="N2">
-        <v>0.009489640780611526</v>
+        <v>-0.02019683900534692</v>
       </c>
       <c r="O2">
-        <v>-0.08659401856614238</v>
+        <v>-0.0566568981436331</v>
       </c>
       <c r="P2">
-        <v>-0.03008701365071181</v>
+        <v>-0.007187065104743843</v>
       </c>
       <c r="Q2">
-        <v>0.1116893911633966</v>
+        <v>0.1062962383605589</v>
       </c>
       <c r="R2">
-        <v>0.1050017289004823</v>
+        <v>0.08646766540632626</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -542,55 +542,55 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.001850288885893298</v>
+        <v>0.02182616945355888</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.3018258358610048</v>
+        <v>0.3154369035668071</v>
       </c>
       <c r="E3">
-        <v>0.9857707490682043</v>
+        <v>0.9866804434704105</v>
       </c>
       <c r="F3">
-        <v>0.6872407886064509</v>
+        <v>0.6831766985756181</v>
       </c>
       <c r="G3">
-        <v>0.7216455121738492</v>
+        <v>0.78640079707208</v>
       </c>
       <c r="H3">
-        <v>0.2247429937446644</v>
+        <v>0.1855980807046023</v>
       </c>
       <c r="I3">
-        <v>0.0268447370940687</v>
+        <v>-0.01390833038722881</v>
       </c>
       <c r="J3">
-        <v>0.1902422425590406</v>
+        <v>0.3670430834806215</v>
       </c>
       <c r="K3">
-        <v>0.3660006560734098</v>
+        <v>0.3612570792762101</v>
       </c>
       <c r="L3">
-        <v>-0.2091173052032373</v>
+        <v>-0.2532736374418916</v>
       </c>
       <c r="M3">
-        <v>0.07803539075780719</v>
+        <v>0.1031357793370729</v>
       </c>
       <c r="N3">
-        <v>-0.1810924327509304</v>
+        <v>-0.1754005454031793</v>
       </c>
       <c r="O3">
-        <v>-0.2142945013464254</v>
+        <v>-0.2711416642630692</v>
       </c>
       <c r="P3">
-        <v>-0.1665522303524805</v>
+        <v>-0.253795981752145</v>
       </c>
       <c r="Q3">
-        <v>0.311016698472243</v>
+        <v>0.3773875222498029</v>
       </c>
       <c r="R3">
-        <v>0.2567466757016948</v>
+        <v>0.2548240349401386</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -598,55 +598,55 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1489215867274769</v>
+        <v>0.1561973582161129</v>
       </c>
       <c r="C4">
-        <v>0.3018258358610048</v>
+        <v>0.3154369035668071</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.367892192622511</v>
+        <v>0.3683465558506273</v>
       </c>
       <c r="F4">
-        <v>0.1495798577216971</v>
+        <v>0.15453994654707</v>
       </c>
       <c r="G4">
-        <v>0.2556656624411787</v>
+        <v>0.2580372373886382</v>
       </c>
       <c r="H4">
-        <v>0.002636590658211758</v>
+        <v>0.09684809002256001</v>
       </c>
       <c r="I4">
-        <v>0.03191973960447877</v>
+        <v>0.06579498848824934</v>
       </c>
       <c r="J4">
-        <v>0.09606881982243257</v>
+        <v>0.1853290940045258</v>
       </c>
       <c r="K4">
-        <v>0.1562507788380822</v>
+        <v>0.1610037116126935</v>
       </c>
       <c r="L4">
-        <v>-0.03927305239565416</v>
+        <v>-0.02760742445987233</v>
       </c>
       <c r="M4">
-        <v>0.05403965914610261</v>
+        <v>0.05729459862655538</v>
       </c>
       <c r="N4">
-        <v>-0.07911574421277988</v>
+        <v>-0.08329276092332</v>
       </c>
       <c r="O4">
-        <v>-0.1079443968977357</v>
+        <v>-0.06052329108275704</v>
       </c>
       <c r="P4">
-        <v>-0.02326139554118965</v>
+        <v>-0.02045484713313684</v>
       </c>
       <c r="Q4">
-        <v>0.1308673398785044</v>
+        <v>0.09805674247231738</v>
       </c>
       <c r="R4">
-        <v>0.8522446327114058</v>
+        <v>0.8063940522765805</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -654,55 +654,55 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.01230810475196872</v>
+        <v>0.03495921009184902</v>
       </c>
       <c r="C5">
-        <v>0.9857707490682043</v>
+        <v>0.9866804434704105</v>
       </c>
       <c r="D5">
-        <v>0.367892192622511</v>
+        <v>0.3683465558506273</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6484766339753911</v>
+        <v>0.6459184473467817</v>
       </c>
       <c r="G5">
-        <v>0.6847992544285308</v>
+        <v>0.7506808272848607</v>
       </c>
       <c r="H5">
-        <v>0.2089436268769875</v>
+        <v>0.1780383800133269</v>
       </c>
       <c r="I5">
-        <v>0.02176758832476042</v>
+        <v>-0.01027902805878399</v>
       </c>
       <c r="J5">
-        <v>0.1919097766788187</v>
+        <v>0.3644597819563358</v>
       </c>
       <c r="K5">
-        <v>0.3559950683406672</v>
+        <v>0.3498859199616707</v>
       </c>
       <c r="L5">
-        <v>-0.2136673516343741</v>
+        <v>-0.256216339208469</v>
       </c>
       <c r="M5">
-        <v>0.08319883896440454</v>
+        <v>0.1115819207622358</v>
       </c>
       <c r="N5">
-        <v>-0.1855414983931045</v>
+        <v>-0.1852605900380955</v>
       </c>
       <c r="O5">
-        <v>-0.2238274158883769</v>
+        <v>-0.2694810642428783</v>
       </c>
       <c r="P5">
-        <v>-0.1708427196777453</v>
+        <v>-0.248221854622096</v>
       </c>
       <c r="Q5">
-        <v>0.3130911840430354</v>
+        <v>0.3671299509761716</v>
       </c>
       <c r="R5">
-        <v>0.3227684216809871</v>
+        <v>0.307567483852927</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -710,55 +710,55 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.1319339922662939</v>
+        <v>-0.1163750909869544</v>
       </c>
       <c r="C6">
-        <v>0.6872407886064509</v>
+        <v>0.6831766985756181</v>
       </c>
       <c r="D6">
-        <v>0.1495798577216971</v>
+        <v>0.15453994654707</v>
       </c>
       <c r="E6">
-        <v>0.6484766339753911</v>
+        <v>0.6459184473467817</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.7217612504448447</v>
+        <v>0.7028888810105074</v>
       </c>
       <c r="H6">
-        <v>0.185240875938595</v>
+        <v>0.106518831438737</v>
       </c>
       <c r="I6">
-        <v>0.01846266066335518</v>
+        <v>-0.03004183708995677</v>
       </c>
       <c r="J6">
-        <v>0.07183459912535377</v>
+        <v>0.1413772322039062</v>
       </c>
       <c r="K6">
-        <v>0.3483909005465788</v>
+        <v>0.343147720991185</v>
       </c>
       <c r="L6">
-        <v>-0.1919091574151247</v>
+        <v>-0.2211584815271056</v>
       </c>
       <c r="M6">
-        <v>0.02655768149350725</v>
+        <v>0.07002236625736138</v>
       </c>
       <c r="N6">
-        <v>-0.1347303294721315</v>
+        <v>-0.1251768485086293</v>
       </c>
       <c r="O6">
-        <v>-0.1611715306647387</v>
+        <v>-0.2043039835542633</v>
       </c>
       <c r="P6">
-        <v>-0.1072175096658837</v>
+        <v>-0.1805088392176692</v>
       </c>
       <c r="Q6">
-        <v>0.2306459214177511</v>
+        <v>0.289774313962271</v>
       </c>
       <c r="R6">
-        <v>0.09636671918699068</v>
+        <v>0.09825904907636407</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -766,55 +766,55 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.02627770392256088</v>
+        <v>0.02077255415418379</v>
       </c>
       <c r="C7">
-        <v>0.7216455121738492</v>
+        <v>0.78640079707208</v>
       </c>
       <c r="D7">
-        <v>0.2556656624411787</v>
+        <v>0.2580372373886382</v>
       </c>
       <c r="E7">
-        <v>0.6847992544285308</v>
+        <v>0.7506808272848607</v>
       </c>
       <c r="F7">
-        <v>0.7217612504448447</v>
+        <v>0.7028888810105074</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.1925681739245486</v>
+        <v>0.1179376600409756</v>
       </c>
       <c r="I7">
-        <v>0.03476626256614319</v>
+        <v>-0.005414039327860201</v>
       </c>
       <c r="J7">
-        <v>0.1221986789226429</v>
+        <v>0.2846319473949654</v>
       </c>
       <c r="K7">
-        <v>0.3906387852345145</v>
+        <v>0.3863323890754672</v>
       </c>
       <c r="L7">
-        <v>-0.1662791496823266</v>
+        <v>-0.219680012803302</v>
       </c>
       <c r="M7">
-        <v>0.06334101026534689</v>
+        <v>0.1231509232363409</v>
       </c>
       <c r="N7">
-        <v>-0.1160480103215637</v>
+        <v>-0.1223186464598364</v>
       </c>
       <c r="O7">
-        <v>-0.1642218686983794</v>
+        <v>-0.2223416642598738</v>
       </c>
       <c r="P7">
-        <v>-0.08793728275249559</v>
+        <v>-0.1776277319520681</v>
       </c>
       <c r="Q7">
-        <v>0.2513910903642172</v>
+        <v>0.314306617563961</v>
       </c>
       <c r="R7">
-        <v>0.17195948059481</v>
+        <v>0.1806196292686152</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -822,55 +822,55 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.02456673840456082</v>
+        <v>0.05817603804063805</v>
       </c>
       <c r="C8">
-        <v>0.2247429937446644</v>
+        <v>0.1855980807046023</v>
       </c>
       <c r="D8">
-        <v>0.002636590658211758</v>
+        <v>0.09684809002256001</v>
       </c>
       <c r="E8">
-        <v>0.2089436268769875</v>
+        <v>0.1780383800133269</v>
       </c>
       <c r="F8">
-        <v>0.185240875938595</v>
+        <v>0.106518831438737</v>
       </c>
       <c r="G8">
-        <v>0.1925681739245486</v>
+        <v>0.1179376600409756</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0.1769729504031194</v>
+        <v>0.1691395425846627</v>
       </c>
       <c r="J8">
-        <v>-0.05515572018178454</v>
+        <v>0.1836746320285259</v>
       </c>
       <c r="K8">
-        <v>0.2756582871221798</v>
+        <v>0.3287776707991301</v>
       </c>
       <c r="L8">
-        <v>0.07474155526084231</v>
+        <v>0.002238798565682087</v>
       </c>
       <c r="M8">
-        <v>-0.1045585186149964</v>
+        <v>-0.2898498360493113</v>
       </c>
       <c r="N8">
-        <v>-0.02396186373018172</v>
+        <v>-0.01678743337994913</v>
       </c>
       <c r="O8">
-        <v>0.150259595122836</v>
+        <v>0.08776993262441081</v>
       </c>
       <c r="P8">
-        <v>-0.02191660689840235</v>
+        <v>-0.0626593589191259</v>
       </c>
       <c r="Q8">
-        <v>-0.05880687282639374</v>
+        <v>-0.003591890663665026</v>
       </c>
       <c r="R8">
-        <v>-0.03516633428719838</v>
+        <v>0.04123575111478703</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -878,55 +878,55 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.004457630734771163</v>
+        <v>0.0408407768959013</v>
       </c>
       <c r="C9">
-        <v>0.0268447370940687</v>
+        <v>-0.01390833038722881</v>
       </c>
       <c r="D9">
-        <v>0.03191973960447877</v>
+        <v>0.06579498848824934</v>
       </c>
       <c r="E9">
-        <v>0.02176758832476042</v>
+        <v>-0.01027902805878399</v>
       </c>
       <c r="F9">
-        <v>0.01846266066335518</v>
+        <v>-0.03004183708995677</v>
       </c>
       <c r="G9">
-        <v>0.03476626256614319</v>
+        <v>-0.005414039327860201</v>
       </c>
       <c r="H9">
-        <v>0.1769729504031194</v>
+        <v>0.1691395425846627</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>-0.2466576020680079</v>
+        <v>-0.2004558451568776</v>
       </c>
       <c r="K9">
-        <v>0.08615621927053242</v>
+        <v>0.1347757184027903</v>
       </c>
       <c r="L9">
-        <v>-0.01316463492090171</v>
+        <v>0.008725918107876582</v>
       </c>
       <c r="M9">
-        <v>-0.001050855680244175</v>
+        <v>-0.0924344396237025</v>
       </c>
       <c r="N9">
-        <v>0.02920074754644705</v>
+        <v>0.05272156955610533</v>
       </c>
       <c r="O9">
-        <v>0.7709418937442448</v>
+        <v>0.7913335835747647</v>
       </c>
       <c r="P9">
-        <v>0.8290864716099348</v>
+        <v>0.8460270644514853</v>
       </c>
       <c r="Q9">
-        <v>-0.5992750850547919</v>
+        <v>-0.6187128301971078</v>
       </c>
       <c r="R9">
-        <v>-0.1256317897662566</v>
+        <v>-0.1358528333466945</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -934,55 +934,55 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.03286644137759669</v>
+        <v>-0.06360947616749865</v>
       </c>
       <c r="C10">
-        <v>0.1902422425590406</v>
+        <v>0.3670430834806215</v>
       </c>
       <c r="D10">
-        <v>0.09606881982243257</v>
+        <v>0.1853290940045258</v>
       </c>
       <c r="E10">
-        <v>0.1919097766788187</v>
+        <v>0.3644597819563358</v>
       </c>
       <c r="F10">
-        <v>0.07183459912535377</v>
+        <v>0.1413772322039062</v>
       </c>
       <c r="G10">
-        <v>0.1221986789226429</v>
+        <v>0.2846319473949654</v>
       </c>
       <c r="H10">
-        <v>-0.05515572018178454</v>
+        <v>0.1836746320285259</v>
       </c>
       <c r="I10">
-        <v>-0.2466576020680079</v>
+        <v>-0.2004558451568776</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10">
-        <v>0.3860036082185832</v>
+        <v>0.2140623882627632</v>
       </c>
       <c r="L10">
-        <v>0.06712770993099813</v>
+        <v>0.05682742358651752</v>
       </c>
       <c r="M10">
-        <v>-0.1387143583953654</v>
+        <v>-0.06915465101826668</v>
       </c>
       <c r="N10">
-        <v>0.001889827327806829</v>
+        <v>-0.04387962563980437</v>
       </c>
       <c r="O10">
-        <v>-0.1728742544547517</v>
+        <v>-0.2359911756720129</v>
       </c>
       <c r="P10">
-        <v>-0.2207578900530634</v>
+        <v>-0.2867958657648925</v>
       </c>
       <c r="Q10">
-        <v>0.1599634854338265</v>
+        <v>0.3081132461841581</v>
       </c>
       <c r="R10">
-        <v>0.07424387472012163</v>
+        <v>0.1435796831469926</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -990,55 +990,55 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.008016892832598585</v>
+        <v>-0.006476228721486406</v>
       </c>
       <c r="C11">
-        <v>0.3660006560734098</v>
+        <v>0.3612570792762101</v>
       </c>
       <c r="D11">
-        <v>0.1562507788380822</v>
+        <v>0.1610037116126935</v>
       </c>
       <c r="E11">
-        <v>0.3559950683406672</v>
+        <v>0.3498859199616707</v>
       </c>
       <c r="F11">
-        <v>0.3483909005465788</v>
+        <v>0.343147720991185</v>
       </c>
       <c r="G11">
-        <v>0.3906387852345145</v>
+        <v>0.3863323890754672</v>
       </c>
       <c r="H11">
-        <v>0.2756582871221798</v>
+        <v>0.3287776707991301</v>
       </c>
       <c r="I11">
-        <v>0.08615621927053242</v>
+        <v>0.1347757184027903</v>
       </c>
       <c r="J11">
-        <v>0.3860036082185832</v>
+        <v>0.2140623882627632</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>-0.1069176189682361</v>
+        <v>-0.1272329298914806</v>
       </c>
       <c r="M11">
-        <v>0.04049201054939966</v>
+        <v>0.02290981923377601</v>
       </c>
       <c r="N11">
-        <v>-0.08424774371036856</v>
+        <v>-0.08557855449945845</v>
       </c>
       <c r="O11">
-        <v>-0.04618086619264219</v>
+        <v>-0.02821844810346547</v>
       </c>
       <c r="P11">
-        <v>0.1431320782339074</v>
+        <v>0.1449812760296942</v>
       </c>
       <c r="Q11">
-        <v>0.03512199863764893</v>
+        <v>0.04181362431657372</v>
       </c>
       <c r="R11">
-        <v>0.1225894097125744</v>
+        <v>0.1238823391651584</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1046,55 +1046,55 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.000140497167486764</v>
+        <v>-0.005444397892174383</v>
       </c>
       <c r="C12">
-        <v>-0.2091173052032373</v>
+        <v>-0.2532736374418916</v>
       </c>
       <c r="D12">
-        <v>-0.03927305239565416</v>
+        <v>-0.02760742445987233</v>
       </c>
       <c r="E12">
-        <v>-0.2136673516343741</v>
+        <v>-0.256216339208469</v>
       </c>
       <c r="F12">
-        <v>-0.1919091574151247</v>
+        <v>-0.2211584815271056</v>
       </c>
       <c r="G12">
-        <v>-0.1662791496823266</v>
+        <v>-0.219680012803302</v>
       </c>
       <c r="H12">
-        <v>0.07474155526084231</v>
+        <v>0.002238798565682087</v>
       </c>
       <c r="I12">
-        <v>-0.01316463492090171</v>
+        <v>0.008725918107876582</v>
       </c>
       <c r="J12">
-        <v>0.06712770993099813</v>
+        <v>0.05682742358651752</v>
       </c>
       <c r="K12">
-        <v>-0.1069176189682361</v>
+        <v>-0.1272329298914806</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>-0.12696659991419</v>
+        <v>-0.2776929725556865</v>
       </c>
       <c r="N12">
-        <v>0.3742166242575423</v>
+        <v>0.3739778853610606</v>
       </c>
       <c r="O12">
-        <v>0.2234402281740601</v>
+        <v>0.2297554514980547</v>
       </c>
       <c r="P12">
-        <v>0.02876646526398971</v>
+        <v>0.1026342468556915</v>
       </c>
       <c r="Q12">
-        <v>-0.205807086339087</v>
+        <v>-0.2140164438405468</v>
       </c>
       <c r="R12">
-        <v>-0.06952079577870593</v>
+        <v>-0.06980533115162958</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -1102,55 +1102,55 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.05762120001360425</v>
+        <v>0.07924311916357935</v>
       </c>
       <c r="C13">
-        <v>0.07803539075780719</v>
+        <v>0.1031357793370729</v>
       </c>
       <c r="D13">
-        <v>0.05403965914610261</v>
+        <v>0.05729459862655538</v>
       </c>
       <c r="E13">
-        <v>0.08319883896440454</v>
+        <v>0.1115819207622358</v>
       </c>
       <c r="F13">
-        <v>0.02655768149350725</v>
+        <v>0.07002236625736138</v>
       </c>
       <c r="G13">
-        <v>0.06334101026534689</v>
+        <v>0.1231509232363409</v>
       </c>
       <c r="H13">
-        <v>-0.1045585186149964</v>
+        <v>-0.2898498360493113</v>
       </c>
       <c r="I13">
-        <v>-0.001050855680244175</v>
+        <v>-0.0924344396237025</v>
       </c>
       <c r="J13">
-        <v>-0.1387143583953654</v>
+        <v>-0.06915465101826668</v>
       </c>
       <c r="K13">
-        <v>0.04049201054939966</v>
+        <v>0.02290981923377601</v>
       </c>
       <c r="L13">
-        <v>-0.12696659991419</v>
+        <v>-0.2776929725556865</v>
       </c>
       <c r="M13">
         <v>1</v>
       </c>
       <c r="N13">
-        <v>-0.1074086741001593</v>
+        <v>-0.125961494968857</v>
       </c>
       <c r="O13">
-        <v>-0.2187093235772138</v>
+        <v>-0.437373951660145</v>
       </c>
       <c r="P13">
-        <v>-0.01943410637729516</v>
+        <v>-0.1422850321348789</v>
       </c>
       <c r="Q13">
-        <v>0.2065169565231733</v>
+        <v>0.4019347314949053</v>
       </c>
       <c r="R13">
-        <v>0.09658417873597253</v>
+        <v>0.1627048035046665</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -1158,55 +1158,55 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.009489640780611526</v>
+        <v>-0.02019683900534692</v>
       </c>
       <c r="C14">
-        <v>-0.1810924327509304</v>
+        <v>-0.1754005454031793</v>
       </c>
       <c r="D14">
-        <v>-0.07911574421277988</v>
+        <v>-0.08329276092332</v>
       </c>
       <c r="E14">
-        <v>-0.1855414983931045</v>
+        <v>-0.1852605900380955</v>
       </c>
       <c r="F14">
-        <v>-0.1347303294721315</v>
+        <v>-0.1251768485086293</v>
       </c>
       <c r="G14">
-        <v>-0.1160480103215637</v>
+        <v>-0.1223186464598364</v>
       </c>
       <c r="H14">
-        <v>-0.02396186373018172</v>
+        <v>-0.01678743337994913</v>
       </c>
       <c r="I14">
-        <v>0.02920074754644705</v>
+        <v>0.05272156955610533</v>
       </c>
       <c r="J14">
-        <v>0.001889827327806829</v>
+        <v>-0.04387962563980437</v>
       </c>
       <c r="K14">
-        <v>-0.08424774371036856</v>
+        <v>-0.08557855449945845</v>
       </c>
       <c r="L14">
-        <v>0.3742166242575423</v>
+        <v>0.3739778853610606</v>
       </c>
       <c r="M14">
-        <v>-0.1074086741001593</v>
+        <v>-0.125961494968857</v>
       </c>
       <c r="N14">
         <v>1</v>
       </c>
       <c r="O14">
-        <v>0.1274316861432362</v>
+        <v>0.1527407708739386</v>
       </c>
       <c r="P14">
-        <v>0.06240494224184578</v>
+        <v>0.1023640766620208</v>
       </c>
       <c r="Q14">
-        <v>-0.1226368136398986</v>
+        <v>-0.1466507375749035</v>
       </c>
       <c r="R14">
-        <v>-0.09509794687587879</v>
+        <v>-0.112942253641689</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -1214,55 +1214,55 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.08659401856614238</v>
+        <v>-0.0566568981436331</v>
       </c>
       <c r="C15">
-        <v>-0.2142945013464254</v>
+        <v>-0.2711416642630692</v>
       </c>
       <c r="D15">
-        <v>-0.1079443968977357</v>
+        <v>-0.06052329108275704</v>
       </c>
       <c r="E15">
-        <v>-0.2238274158883769</v>
+        <v>-0.2694810642428783</v>
       </c>
       <c r="F15">
-        <v>-0.1611715306647387</v>
+        <v>-0.2043039835542633</v>
       </c>
       <c r="G15">
-        <v>-0.1642218686983794</v>
+        <v>-0.2223416642598738</v>
       </c>
       <c r="H15">
-        <v>0.150259595122836</v>
+        <v>0.08776993262441081</v>
       </c>
       <c r="I15">
-        <v>0.7709418937442448</v>
+        <v>0.7913335835747647</v>
       </c>
       <c r="J15">
-        <v>-0.1728742544547517</v>
+        <v>-0.2359911756720129</v>
       </c>
       <c r="K15">
-        <v>-0.04618086619264219</v>
+        <v>-0.02821844810346547</v>
       </c>
       <c r="L15">
-        <v>0.2234402281740601</v>
+        <v>0.2297554514980547</v>
       </c>
       <c r="M15">
-        <v>-0.2187093235772138</v>
+        <v>-0.437373951660145</v>
       </c>
       <c r="N15">
-        <v>0.1274316861432362</v>
+        <v>0.1527407708739386</v>
       </c>
       <c r="O15">
         <v>1</v>
       </c>
       <c r="P15">
-        <v>0.8115745526140059</v>
+        <v>0.8804810752479579</v>
       </c>
       <c r="Q15">
-        <v>-0.9084317545952476</v>
+        <v>-0.9079961471734272</v>
       </c>
       <c r="R15">
-        <v>-0.2888716325287132</v>
+        <v>-0.2895667043256882</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -1270,55 +1270,55 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.03008701365071181</v>
+        <v>-0.007187065104743843</v>
       </c>
       <c r="C16">
-        <v>-0.1665522303524805</v>
+        <v>-0.253795981752145</v>
       </c>
       <c r="D16">
-        <v>-0.02326139554118965</v>
+        <v>-0.02045484713313684</v>
       </c>
       <c r="E16">
-        <v>-0.1708427196777453</v>
+        <v>-0.248221854622096</v>
       </c>
       <c r="F16">
-        <v>-0.1072175096658837</v>
+        <v>-0.1805088392176692</v>
       </c>
       <c r="G16">
-        <v>-0.08793728275249559</v>
+        <v>-0.1776277319520681</v>
       </c>
       <c r="H16">
-        <v>-0.02191660689840235</v>
+        <v>-0.0626593589191259</v>
       </c>
       <c r="I16">
-        <v>0.8290864716099348</v>
+        <v>0.8460270644514853</v>
       </c>
       <c r="J16">
-        <v>-0.2207578900530634</v>
+        <v>-0.2867958657648925</v>
       </c>
       <c r="K16">
-        <v>0.1431320782339074</v>
+        <v>0.1449812760296942</v>
       </c>
       <c r="L16">
-        <v>0.02876646526398971</v>
+        <v>0.1026342468556915</v>
       </c>
       <c r="M16">
-        <v>-0.01943410637729516</v>
+        <v>-0.1422850321348789</v>
       </c>
       <c r="N16">
-        <v>0.06240494224184578</v>
+        <v>0.1023640766620208</v>
       </c>
       <c r="O16">
-        <v>0.8115745526140059</v>
+        <v>0.8804810752479579</v>
       </c>
       <c r="P16">
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>-0.7372600948160017</v>
+        <v>-0.7994734239842617</v>
       </c>
       <c r="R16">
-        <v>-0.1626141013504279</v>
+        <v>-0.216825404079026</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -1326,55 +1326,55 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1116893911633966</v>
+        <v>0.1062962383605589</v>
       </c>
       <c r="C17">
-        <v>0.311016698472243</v>
+        <v>0.3773875222498029</v>
       </c>
       <c r="D17">
-        <v>0.1308673398785044</v>
+        <v>0.09805674247231738</v>
       </c>
       <c r="E17">
-        <v>0.3130911840430354</v>
+        <v>0.3671299509761716</v>
       </c>
       <c r="F17">
-        <v>0.2306459214177511</v>
+        <v>0.289774313962271</v>
       </c>
       <c r="G17">
-        <v>0.2513910903642172</v>
+        <v>0.314306617563961</v>
       </c>
       <c r="H17">
-        <v>-0.05880687282639374</v>
+        <v>-0.003591890663665026</v>
       </c>
       <c r="I17">
-        <v>-0.5992750850547919</v>
+        <v>-0.6187128301971078</v>
       </c>
       <c r="J17">
-        <v>0.1599634854338265</v>
+        <v>0.3081132461841581</v>
       </c>
       <c r="K17">
-        <v>0.03512199863764893</v>
+        <v>0.04181362431657372</v>
       </c>
       <c r="L17">
-        <v>-0.205807086339087</v>
+        <v>-0.2140164438405468</v>
       </c>
       <c r="M17">
-        <v>0.2065169565231733</v>
+        <v>0.4019347314949053</v>
       </c>
       <c r="N17">
-        <v>-0.1226368136398986</v>
+        <v>-0.1466507375749035</v>
       </c>
       <c r="O17">
-        <v>-0.9084317545952476</v>
+        <v>-0.9079961471734272</v>
       </c>
       <c r="P17">
-        <v>-0.7372600948160017</v>
+        <v>-0.7994734239842617</v>
       </c>
       <c r="Q17">
         <v>1</v>
       </c>
       <c r="R17">
-        <v>0.262420163990857</v>
+        <v>0.2629254518774299</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1382,52 +1382,52 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1050017289004823</v>
+        <v>0.08646766540632626</v>
       </c>
       <c r="C18">
-        <v>0.2567466757016948</v>
+        <v>0.2548240349401386</v>
       </c>
       <c r="D18">
-        <v>0.8522446327114058</v>
+        <v>0.8063940522765805</v>
       </c>
       <c r="E18">
-        <v>0.3227684216809871</v>
+        <v>0.307567483852927</v>
       </c>
       <c r="F18">
-        <v>0.09636671918699068</v>
+        <v>0.09825904907636407</v>
       </c>
       <c r="G18">
-        <v>0.17195948059481</v>
+        <v>0.1806196292686152</v>
       </c>
       <c r="H18">
-        <v>-0.03516633428719838</v>
+        <v>0.04123575111478703</v>
       </c>
       <c r="I18">
-        <v>-0.1256317897662566</v>
+        <v>-0.1358528333466945</v>
       </c>
       <c r="J18">
-        <v>0.07424387472012163</v>
+        <v>0.1435796831469926</v>
       </c>
       <c r="K18">
-        <v>0.1225894097125744</v>
+        <v>0.1238823391651584</v>
       </c>
       <c r="L18">
-        <v>-0.06952079577870593</v>
+        <v>-0.06980533115162958</v>
       </c>
       <c r="M18">
-        <v>0.09658417873597253</v>
+        <v>0.1627048035046665</v>
       </c>
       <c r="N18">
-        <v>-0.09509794687587879</v>
+        <v>-0.112942253641689</v>
       </c>
       <c r="O18">
-        <v>-0.2888716325287132</v>
+        <v>-0.2895667043256882</v>
       </c>
       <c r="P18">
-        <v>-0.1626141013504279</v>
+        <v>-0.216825404079026</v>
       </c>
       <c r="Q18">
-        <v>0.262420163990857</v>
+        <v>0.2629254518774299</v>
       </c>
       <c r="R18">
         <v>1</v>
